--- a/data/case1/5/P2_13.xlsx
+++ b/data/case1/5/P2_13.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.029917166615916813</v>
+        <v>0.12926056049198564</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999991791044351</v>
+        <v>-0.0099999991685244538</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999991884504027</v>
+        <v>-0.067712871276739861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398674475658225</v>
+        <v>0.28398915160247284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999992121335666</v>
+        <v>-0.0059999991904930994</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.018809483290112894</v>
+        <v>-0.0059999991577299738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999061363738</v>
+        <v>-0.019999999016093284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999053984752</v>
+        <v>-0.019999999004613578</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999991703536537</v>
+        <v>-0.0059999991284431786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999991629524629</v>
+        <v>-0.0059999991147563492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999991759269165</v>
+        <v>-0.0044999991276739593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999991612555981</v>
+        <v>-0.0059999991097812178</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999991552324161</v>
+        <v>-0.0059999990960539762</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999100319236</v>
+        <v>-0.011999999033037057</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999991533112862</v>
+        <v>-0.0059999990889076926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999991532686536</v>
+        <v>-0.005999999085952723</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.014203942920871349</v>
+        <v>-0.0059999990821086868</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999991271154656</v>
+        <v>-0.0089999990517437567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.00899999918736194</v>
+        <v>-0.0089999991780547184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999991807676594</v>
+        <v>-0.0089999991711486871</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999991799079027</v>
+        <v>-0.008999999170162809</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999991793678902</v>
+        <v>-0.0089999991694398318</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.008999999182313978</v>
+        <v>-0.0089999991639420074</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998875691169</v>
+        <v>-0.041999998826843132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998870209332</v>
+        <v>-0.041999998820732465</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.005999999187544347</v>
+        <v>-0.0059999991550796494</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999991859260859</v>
+        <v>-0.00090999155841853252</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999991795027796</v>
+        <v>-0.0059999991365744521</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999122449978</v>
+        <v>-0.011999999067482392</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.041675596495520217</v>
+        <v>-0.019999998984197465</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999084155391</v>
+        <v>-0.0068026635077593767</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999028829208</v>
+        <v>-0.020999998966333422</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.024449315342615741</v>
+        <v>-0.0059999991135226693</v>
       </c>
     </row>
   </sheetData>
